--- a/DesignDocs/SFXList.xlsx
+++ b/DesignDocs/SFXList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Unity 2D\GreatGame\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4026DD73-57E8-47A9-BBBD-271EB6BA7690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CE880D-D320-43B4-BE46-4B2E61068C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{9D91C988-A856-41D6-8BC0-4CCCCD9B6B01}"/>
+    <workbookView xWindow="7110" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{9D91C988-A856-41D6-8BC0-4CCCCD9B6B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Concept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Menu Screen BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Response click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Picture drawing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +75,54 @@
   </si>
   <si>
     <t>Desert walking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concept Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frostpunk like ost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper bristling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentiment like handwriting sfx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagulls crying / wind and water breeze sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand blowing sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword drawn / riding camels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toothless man laughing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand stepping sound - ref. Journey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response hovering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick, tick sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,12 +161,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -135,11 +190,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,65 +544,95 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/SFXList.xlsx
+++ b/DesignDocs/SFXList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Unity 2D\GreatGame\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CE880D-D320-43B4-BE46-4B2E61068C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF15AC-6C4E-4769-9F96-7F7572C57807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{9D91C988-A856-41D6-8BC0-4CCCCD9B6B01}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{9D91C988-A856-41D6-8BC0-4CCCCD9B6B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Menu Screen BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,22 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Picture drawing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handwriting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Port BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desert wind BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Turcoman raid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,22 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pentiment like handwriting sfx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seagulls crying / wind and water breeze sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sand blowing sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword drawn / riding camels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +95,102 @@
   </si>
   <si>
     <t>Tick, tick sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astrakan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krasnovodsk</t>
+  </si>
+  <si>
+    <t>Slaver's Trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Great Dunes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targan's Haven</t>
+  </si>
+  <si>
+    <t>The Arazine Steps</t>
+  </si>
+  <si>
+    <t>The Caravan Ridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sands of Arukh-Vey</t>
+  </si>
+  <si>
+    <t>Sailing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beheading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moving onto next encounter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camp fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ominous sound that foreshadows danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doong~ sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market full of people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire cracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end of the prologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop up dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ducat loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +269,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,22 +608,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6561C5AC-DC46-4B62-9B22-3446997D4023}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,80 +631,182 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
